--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2365785.850262227</v>
+        <v>2358612.561551945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702199</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>228.0767087417152</v>
+        <v>38.70518967089871</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G2" t="n">
-        <v>15.16194852731947</v>
-      </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.7656860078883</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>158.1401410055807</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>315.0615966734759</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0396308464215</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>50.84014006246909</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464227</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129686</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.94555578332944</v>
+        <v>242.9546773564085</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.1520687203436</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>30.44838804308338</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>298.9886279539494</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>50.41422151533103</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>134.089613454187</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.63143171491679</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>115.7418731970329</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>26.12759070766483</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>15.37318001253207</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>85.21515906501689</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.547561058393</v>
       </c>
       <c r="U19" t="n">
-        <v>235.5975646709549</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>87.60442205160142</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>281.206152184937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>88.99177052521314</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>130.3329354106952</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>166.9438950833109</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.8496969969102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>78.49471243660182</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>47.85482937789173</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396424889</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>38.24464496894812</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.62325076010693</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>54.9304873890673</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916435</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.6800813726992</v>
+        <v>347.0801464648406</v>
       </c>
       <c r="C2" t="n">
-        <v>825.6800813726992</v>
+        <v>347.0801464648406</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726992</v>
+        <v>347.0801464648406</v>
       </c>
       <c r="E2" t="n">
-        <v>595.2995674921788</v>
+        <v>307.9839952821146</v>
       </c>
       <c r="F2" t="n">
-        <v>316.3535940554561</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4330,16 +4330,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
@@ -4360,22 +4360,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="V2" t="n">
-        <v>825.6800813726992</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726992</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726992</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="Y2" t="n">
-        <v>825.6800813726992</v>
+        <v>626.0261199015633</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="C3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="D3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="E3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G3" t="n">
         <v>222.40666688016</v>
@@ -4418,13 +4418,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>679.042797994484</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N3" t="n">
-        <v>952.4377465598159</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
         <v>1025.71200399185</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>753.9434012121501</v>
+        <v>944.8885386421687</v>
       </c>
       <c r="X3" t="n">
-        <v>546.0919010066173</v>
+        <v>737.0370384366358</v>
       </c>
       <c r="Y3" t="n">
-        <v>338.3316022416633</v>
+        <v>529.2767396716819</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4512,28 +4512,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="W4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.1756025565036</v>
+        <v>191.7165880308942</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.6989163865785</v>
+        <v>420.6511211651173</v>
       </c>
       <c r="C5" t="n">
-        <v>959.6989163865785</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="D5" t="n">
-        <v>959.6989163865785</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="E5" t="n">
-        <v>583.9013094710011</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="F5" t="n">
-        <v>576.9558087217977</v>
+        <v>44.74310347550207</v>
       </c>
       <c r="G5" t="n">
-        <v>561.9758757140094</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380377</v>
+        <v>57.64391735380423</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456874</v>
+        <v>220.1747338456883</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039968</v>
+        <v>474.0852112039984</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494149</v>
+        <v>773.2160860494173</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.55521363572</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935878</v>
+        <v>1447.523776935882</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T5" t="n">
-        <v>1264.898900894974</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U5" t="n">
-        <v>1011.052593217355</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V5" t="n">
-        <v>1011.052593217355</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="W5" t="n">
-        <v>1011.052593217355</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="X5" t="n">
-        <v>959.6989163865785</v>
+        <v>1114.692765124611</v>
       </c>
       <c r="Y5" t="n">
-        <v>959.6989163865785</v>
+        <v>738.8951582090324</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.7507577219558</v>
+        <v>658.9226223886626</v>
       </c>
       <c r="C6" t="n">
-        <v>176.2977284408287</v>
+        <v>484.4695931075356</v>
       </c>
       <c r="D6" t="n">
-        <v>176.2977284408287</v>
+        <v>335.5351834462843</v>
       </c>
       <c r="E6" t="n">
-        <v>176.2977284408287</v>
+        <v>176.2977284408288</v>
       </c>
       <c r="F6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="G6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771372</v>
+        <v>52.67537262782864</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760264</v>
+        <v>218.4568186361416</v>
       </c>
       <c r="L6" t="n">
-        <v>212.7583667934828</v>
+        <v>502.7748277822781</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314401</v>
+        <v>848.0470181903971</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693974</v>
+        <v>848.0470181903971</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241716</v>
+        <v>1156.361899562717</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385686</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385686</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707608</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107477</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T6" t="n">
-        <v>1033.017297458525</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U6" t="n">
-        <v>804.8104831120893</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V6" t="n">
-        <v>569.6583748803466</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="W6" t="n">
-        <v>558.6022579274886</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>350.7507577219558</v>
+        <v>1034.898258173685</v>
       </c>
       <c r="Y6" t="n">
-        <v>350.7507577219558</v>
+        <v>827.1379594087307</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771372</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771372</v>
+        <v>177.6762640501069</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771372</v>
+        <v>177.6762640501069</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771372</v>
+        <v>29.76317046771381</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888142</v>
+        <v>32.09990175888171</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611237</v>
+        <v>90.61654790611293</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236683</v>
+        <v>162.7032697236692</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400014</v>
+        <v>238.5105468400025</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057938</v>
+        <v>292.5145415057951</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918666</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="V7" t="n">
-        <v>60.51911798597976</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="W7" t="n">
-        <v>60.51911798597976</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771372</v>
+        <v>315.2036061918681</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771372</v>
+        <v>315.2036061918681</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>369.875100986773</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>369.875100986773</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2591.196945472624</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2372.562278444686</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2118.800493082778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.800493082778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2118.800493082778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1745.334734821698</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.334734821698</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,31 +4883,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>336.2769833124031</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>336.2769833124031</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.148054050878</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C13" t="n">
-        <v>822.148054050878</v>
+        <v>656.1762782006413</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5220,31 +5220,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119731</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119731</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119731</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1270.930184092425</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.930184092425</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.940633194408</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.148054050878</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,19 +5263,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5284,7 +5284,7 @@
         <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5363,16 +5363,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>550.2226492899335</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698952</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.4616523829102</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829102</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1148.52728725011</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1148.52728725011</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>859.1101172131499</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>859.1101172131499</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.1101172131499</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>378.1030765138943</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203583</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>713.5778697504956</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U19" t="n">
-        <v>726.1584037733164</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="V19" t="n">
-        <v>726.1584037733164</v>
+        <v>1020.446367141517</v>
       </c>
       <c r="W19" t="n">
-        <v>436.7412337363558</v>
+        <v>1020.446367141517</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>1020.446367141517</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>799.6537879979874</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5837,16 +5837,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>991.0842369787849</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C22" t="n">
-        <v>822.148054050878</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D22" t="n">
-        <v>822.148054050878</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>336.1244151159804</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>336.1244151159804</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>991.0842369787849</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>991.0842369787849</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.0842369787849</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,16 +6007,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>355.2830904386603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>355.2830904386603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>355.2830904386603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>985.7136853104475</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7241344124302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,10 +6220,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6311,16 +6311,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.738453580939</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>827.9306256062542</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>658.9944426783474</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>658.9944426783474</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>658.9944426783474</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1009.579090436494</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>1009.579090436494</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>525.6009593486384</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C31" t="n">
-        <v>356.6647764207315</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2366688293934</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>933.2366688293934</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X31" t="n">
-        <v>705.247117931376</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.6009593486384</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6703,25 +6703,25 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904388</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4186.289902337209</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>4186.289902337209</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>4637.069157803799</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W37" t="n">
-        <v>4637.069157803799</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X37" t="n">
-        <v>4588.730946310979</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y37" t="n">
-        <v>4367.938367167449</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,16 +7177,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7259,16 +7259,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>947.0827307963585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>726.2901516528284</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4437.14914771935</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>4437.14914771935</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>4437.14914771935</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>4209.159596821333</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>3988.367017677803</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1132.435816238242</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>843.3071774518004</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V46" t="n">
-        <v>843.3071774518004</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W46" t="n">
-        <v>843.3071774518004</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X46" t="n">
-        <v>615.317626553783</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.5250474102529</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>281.3133266100198</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>198.6880201340531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948385</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>101.0380636583283</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835731</v>
+        <v>426.8235107281804</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470456</v>
+        <v>65.57565010062352</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247343</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978208</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>15.83804904622843</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>91.23759968302119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9485,19 +9485,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>15.83804904622852</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>73.64859338270662</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>73.53204524670008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>297.2466435761027</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>295.3773510571275</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>295.3773510571273</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.615389383711</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>136.3957701267951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>120.3063719389043</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>270.8641723860453</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>94.61682111692041</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>50.63978772762246</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>78.88914641177617</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5.316846151653976</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>57.44219212135603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>15.08811261223605</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>58.76576030572622</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.73495635518458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>88.75210866202602</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8548260111454</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.0220289556699</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>187.465010420089</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.2087294218304</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.6170736693219</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240302</v>
+        <v>830125.3243240297</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196782</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703831</v>
+        <v>106137.1517703843</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252116</v>
+        <v>316711.9424252104</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313402</v>
+        <v>24677.24609313428</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817157</v>
+        <v>76496.15793817128</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,28 +26420,28 @@
         <v>300141.6569151476</v>
       </c>
       <c r="C4" t="n">
-        <v>269877.2512870325</v>
+        <v>269877.2512870322</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.4220148571</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117638.9052728647</v>
+        <v>117638.9052728646</v>
       </c>
       <c r="C6" t="n">
-        <v>160430.4580793323</v>
+        <v>160430.4580793316</v>
       </c>
       <c r="D6" t="n">
-        <v>21193.48534115759</v>
+        <v>21193.48534115881</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823722</v>
+        <v>-80433.36261795869</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589377</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186588</v>
+        <v>444726.6738589375</v>
       </c>
       <c r="H6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186591</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="J6" t="n">
-        <v>373446.5702475199</v>
+        <v>372471.978987798</v>
       </c>
       <c r="K6" t="n">
-        <v>421024.0190255251</v>
+        <v>420049.4277658032</v>
       </c>
       <c r="L6" t="n">
-        <v>369205.1071804876</v>
+        <v>368230.5159207663</v>
       </c>
       <c r="M6" t="n">
-        <v>310900.2498848216</v>
+        <v>309925.6586251003</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186587</v>
+        <v>444726.6738589371</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.2651186585</v>
+        <v>444726.6738589376</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593885</v>
+        <v>117.5602045593895</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464215</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026319</v>
+        <v>82.53894384026414</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576982</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406717</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406615</v>
+        <v>95.88311714406717</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406603</v>
+        <v>95.88311714406717</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081341</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>153.8536613305466</v>
+        <v>343.225180401363</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27432,13 +27432,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.76749764197903</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>93.55484215533889</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>167.2504309812602</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>67.67224499000463</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.890739225840264</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>318.8909606159999</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963093</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281885</v>
+        <v>80.69052336281878</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129673</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>240.7494273775902</v>
+        <v>8.740305804511109</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>31.09475237828428</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358483</v>
+        <v>78.37121764358471</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322671</v>
+        <v>68.41045236322657</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27833,13 +27833,13 @@
         <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>195.2612673459538</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>107.887417787762</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>124.0014912936405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12.34434919238217</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246771</v>
+        <v>0.4726038374246809</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025476</v>
+        <v>4.840054050025515</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231488</v>
+        <v>18.22005944231503</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662273</v>
+        <v>40.11165994662305</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480932</v>
+        <v>60.11698038480981</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743948</v>
+        <v>74.58043007439541</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819589</v>
+        <v>82.98509856819656</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127877</v>
+        <v>84.32788422127945</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288713</v>
+        <v>79.62842981288777</v>
       </c>
       <c r="P5" t="n">
-        <v>67.9610225764654</v>
+        <v>67.96102257646595</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869414</v>
+        <v>51.03589764869455</v>
       </c>
       <c r="R5" t="n">
-        <v>29.6872008026279</v>
+        <v>29.68720080262814</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531484</v>
+        <v>10.76945994531493</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326525</v>
+        <v>2.068823298326542</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397416</v>
+        <v>0.03780830699397447</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560432</v>
+        <v>0.2528653456560453</v>
       </c>
       <c r="H6" t="n">
-        <v>2.44214689094126</v>
+        <v>2.44214689094128</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596226</v>
+        <v>8.706109488596297</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182819</v>
+        <v>23.89022987182839</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078309</v>
+        <v>40.83220803078342</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483518</v>
+        <v>54.90394270483563</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486674</v>
+        <v>64.07031148486726</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270925</v>
+        <v>65.76606198270979</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106745</v>
+        <v>60.16309827106793</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496847</v>
+        <v>48.28619043496887</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128721</v>
+        <v>32.27803956128747</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134627</v>
+        <v>15.6998326013464</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707642</v>
+        <v>4.69686288970768</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359227</v>
+        <v>1.019224792359235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368706</v>
+        <v>0.0166358780036872</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005366</v>
+        <v>0.2119938115005384</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886591</v>
+        <v>1.884817705886606</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761596</v>
+        <v>6.375232076761647</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308794</v>
+        <v>14.98796247308806</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342598</v>
+        <v>24.62982646342618</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072525</v>
+        <v>31.5176981207255</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094321</v>
+        <v>33.23099356094348</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898669</v>
+        <v>32.44083480898696</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736678</v>
+        <v>29.96436164736702</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275581</v>
+        <v>25.63968789275601</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846767</v>
+        <v>17.75159088846781</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651401</v>
+        <v>9.532012651651478</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513897</v>
+        <v>3.694473969513926</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477473</v>
+        <v>0.9057917400477546</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912019</v>
+        <v>0.01156329880912029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>74.01440144649911</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>79.71116244199196</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201021</v>
+        <v>28.16237059201053</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109935</v>
+        <v>164.172541910994</v>
       </c>
       <c r="L5" t="n">
-        <v>256.475229654858</v>
+        <v>256.4752296548586</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337557</v>
+        <v>302.1523988337563</v>
       </c>
       <c r="N5" t="n">
-        <v>292.261745036672</v>
+        <v>292.2617450366727</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539458</v>
+        <v>230.3303996539464</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926785</v>
+        <v>158.5267349926791</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414933</v>
+        <v>41.04519843414975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557053</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690027</v>
+        <v>167.456006069003</v>
       </c>
       <c r="L6" t="n">
-        <v>17.38762658328929</v>
+        <v>287.1899082284206</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464215</v>
+        <v>348.7597882910293</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033525</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605754</v>
+        <v>232.7745516605758</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543129</v>
+        <v>2.360334637543328</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104138</v>
+        <v>59.10772338104164</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278379</v>
+        <v>72.81487052278408</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821529</v>
+        <v>76.57300718821554</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140645</v>
+        <v>54.54948956140669</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764929</v>
+        <v>22.9182471576495</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958064</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,7 +35506,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187824</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>265.0957540022528</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>241.8130382709604</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36205,19 +36205,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>590.4888118683114</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>222.9314639777532</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>356.0122956238148</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>280.6254601782248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>546.504348532127</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37627,19 +37627,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>605.8017281075937</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>577.7410532982354</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
